--- a/biology/Médecine/Syndrome_de_Coffin-Lowry/Syndrome_de_Coffin-Lowry.xlsx
+++ b/biology/Médecine/Syndrome_de_Coffin-Lowry/Syndrome_de_Coffin-Lowry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas confondre ce syndrome avec le syndrome de Coffin-Siris
-Décrit indépendamment par Coffin en 1966 et Lowry en 1971 [1], le syndrome de Coffin-Lowry se caractérise par un retard mental important chez les garçons, plus fréquemment atteints, notamment avec sévérité pour des raisons de différences essentielles (maladie semi-dominante liée au chromosome X), et un retard mental variable ou absent, profond à titre exceptionnel, chez les filles hétérozygotes, dans tous les cas atteintes selon des modalités différentes. Le faciès est caractéristique chez les adolescents et les adultes. Les mains sont petites avec une hyperextensibilité des doigts, qui sont souvent petits et fins. Les garçons présentent un retard de croissance constant. La microcéphalie est habituelle. Une cardiopathie est parfois retrouvée, contribuant à la mortalité dans ce syndrome. Des épisodes de chute brutale sans perte de conscience induits par un stimulus tactile ou auditif apparaissent vers l'adolescence dans environ 20 % des cas. La survenue tardive d’une scoliose est la caractéristique la plus frappante de cette maladie.
-Le gène RPS6KA3 code la protéine ribosomique S6 kinase alpha 3 qui agit sur l'ATF4, un facteur de transcription (protéine qui contrôle l'expression des gènes) indispensable à la maturation des ostéoblastes et à la synthèse de collagène de type I [2]. La mutation du gène RSK2 induit une diminution du nombre d'ostéoblastes matures et provoquent une réduction de la masse osseuse. La déficience en collagène explique la dégradation progressive des vertèbres soumises à de fortes contraintes.
+Décrit indépendamment par Coffin en 1966 et Lowry en 1971 , le syndrome de Coffin-Lowry se caractérise par un retard mental important chez les garçons, plus fréquemment atteints, notamment avec sévérité pour des raisons de différences essentielles (maladie semi-dominante liée au chromosome X), et un retard mental variable ou absent, profond à titre exceptionnel, chez les filles hétérozygotes, dans tous les cas atteintes selon des modalités différentes. Le faciès est caractéristique chez les adolescents et les adultes. Les mains sont petites avec une hyperextensibilité des doigts, qui sont souvent petits et fins. Les garçons présentent un retard de croissance constant. La microcéphalie est habituelle. Une cardiopathie est parfois retrouvée, contribuant à la mortalité dans ce syndrome. Des épisodes de chute brutale sans perte de conscience induits par un stimulus tactile ou auditif apparaissent vers l'adolescence dans environ 20 % des cas. La survenue tardive d’une scoliose est la caractéristique la plus frappante de cette maladie.
+Le gène RPS6KA3 code la protéine ribosomique S6 kinase alpha 3 qui agit sur l'ATF4, un facteur de transcription (protéine qui contrôle l'expression des gènes) indispensable à la maturation des ostéoblastes et à la synthèse de collagène de type I . La mutation du gène RSK2 induit une diminution du nombre d'ostéoblastes matures et provoquent une réduction de la masse osseuse. La déficience en collagène explique la dégradation progressive des vertèbres soumises à de fortes contraintes.
 RSK2 phosphoryle également CREB, un facteur de transcription.
 Le séquençage permet de retrouver une mutation dans 40 % des cas.
 </t>
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le syndrome de Coffin-Lowry est un retard mental profond à absent associé à des anomalies de
  Croissance 
@@ -557,11 +571,48 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le diagnostic dans la petite enfance n’est pas facile : les caractéristiques, surtout faciales, ne deviennent évidentes que durant l’adolescence.
-Clinique
-Les signes cliniques les plus importants pour le diagnostic sont [3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic dans la petite enfance n’est pas facile : les caractéristiques, surtout faciales, ne deviennent évidentes que durant l’adolescence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Coffin-Lowry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Coffin-Lowry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les signes cliniques les plus importants pour le diagnostic sont :
  Dysmorphie faciale 
 Hypertélorisme (distance augmentée entre les orbites).
 Lèvre inférieure épaisse et éversée.
@@ -576,40 +627,110 @@
  Anomalies osseuses 
 Petite taille.
 Sternum affaissé (pectum excavatum) ou saillant (pectum carinatum).
-Cyphoscoliose.
-Radiologique
-Espace inter-vertébral réduit.
-Crâne dysmorphique.
-Biologique
-L’évaluation de l’activité de la kinase 6 ribosomique sur culture de fibroblaste est un moyen rapide d’avoir la diagnostic en cas de suspicion chez un garçon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Cyphoscoliose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Syndrome_de_Coffin-Lowry</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_de_Coffin-Lowry</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Radiologique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Espace inter-vertébral réduit.
+Crâne dysmorphique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Coffin-Lowry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Coffin-Lowry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L’évaluation de l’activité de la kinase 6 ribosomique sur culture de fibroblaste est un moyen rapide d’avoir la diagnostic en cas de suspicion chez un garçon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Coffin-Lowry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Coffin-Lowry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Syndrome de Borjeson-Forssman-Lehmann (mais il existe une gynécomastie avec micro-pénis dans ce problème masculin)
 Thalassémie alpha liée à l'X avec retard mental
@@ -620,36 +741,38 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Syndrome_de_Coffin-Lowry</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_de_Coffin-Lowry</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 303600 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 300075 [2]
-(en) Alasdair GW Hunter, Charles E Schwartz, Fatima E Abidi, Coffin-Lowry Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [3]</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 303600 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 300075 
+(en) Alasdair GW Hunter, Charles E Schwartz, Fatima E Abidi, Coffin-Lowry Syndrome in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 </t>
         </is>
       </c>
     </row>
